--- a/consumer_data.xlsx
+++ b/consumer_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="576" windowWidth="22716" windowHeight="8412" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -705,198 +706,6 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>18-03-1977</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>0013</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>THE EXECUTIVE  ENGINNER</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>T.W.A.D  BOARD,1-A, 11TH CROSS,THILLAI NAGAR,TRICHY</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>75 KVA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Govt.Edu.Instit,Hospitals,Railway Traction, CMRL, Lift Irrigation societies, etc. -</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>18-03-1977</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>0014</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TAMILNADU CEMENT CORPORATION LTD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ARIYALUR  WORKS,P.B. NO.14,ARIYALUR.-POST,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>18000 KVA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>02-06-1977</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0015</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>THE CHIEF EXECUTIVE,PBLR SUGAR MILLS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PERAMBALUR SUGAR MILLS LTD.ERAIYUR PERAMBALUR</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2000 KVA</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>16-12-1977</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0017</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>THE COMMISSIONER,MUNICIPALITY,</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>THANJAVUR  MUNICIPALITY,THANJAVUR.(PO) &amp;DIST</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>240 KVA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Govt.Edu.Instit,Hospitals,Railway Traction, CMRL, Lift Irrigation societies, etc. -</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>08-04-1982</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0019</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>VALLIAMMAI LIMES P LTD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>KEELAPALURARIYALUR TK, PERAMBALUR-DT.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>400 KVA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>28-01-1985</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>0020</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ALAGAPPA CEMENTS (P)LTD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>KEELAPALURARIYALUR TK, PERAMBALUR-DT</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>400 KVA</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15-02-1985</t>
         </is>
       </c>
     </row>

--- a/consumer_data.xlsx
+++ b/consumer_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,134 +581,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NILGIRIS CEMENTS P LTD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KALLAKUDILALGUDI TALUK,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>350 KVA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>09-04-1964</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0007</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SHRI NATARAJ CERAMIC &amp; CHEMICAL INDS. LTD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DALMIA PURAMKALLAKUDI POSTLALGUDI  T.K</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>750 KVA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>INDUSTRIES -</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10-01-1968</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0011</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>THE PRINCPAL I.T.I</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GOVT.INDUL.TRAINING INST.ARIYALUR, ARIYALUR DIST.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>63 KVA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Govt.Edu.Instit,Hospitals,Railway Traction, CMRL, Lift Irrigation societies, etc. -</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10-02-1977</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0012</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>THE EXECUTIVE  ENGINEER</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>T.W.A.D  BOARD,1-A ,11TH  CROSS,T.NAGAR,TRICHY-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>75 KVA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Govt.Edu.Instit,Hospitals,Railway Traction, CMRL, Lift Irrigation societies, etc. -</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>18-03-1977</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
